--- a/flask-api/recover_price/price_dataset_2.xlsx
+++ b/flask-api/recover_price/price_dataset_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirunisi\Documents\MODELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\detector-models\flask-api\recover_price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A838166-3BD4-47C3-A17E-E7D84FF70921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D14636-3AA2-4211-ABB7-81AAF4053933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1FAEAA3-1DF3-4B31-8A2C-FDF018FF83F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1FAEAA3-1DF3-4B31-8A2C-FDF018FF83F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,13 +474,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5805E5D6-C19E-42BF-91E2-A1071E0C3AE2}">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="E158" workbookViewId="0">
+      <selection activeCell="X171" sqref="X171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="20" max="23" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -628,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -702,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>78.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>85.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1146,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>15.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1220,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1442,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>71.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>5.25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1590,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>8.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1960,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2034,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>4.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2404,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>59.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2478,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>72.25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2700,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>73</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2848,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3070,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>42.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3144,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3292,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3440,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3514,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3588,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>9.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3810,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4032,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4106,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>9.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4180,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4254,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>9</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4328,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4402,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>43.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4772,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>55.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4846,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4920,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>4.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4994,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5068,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>7.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5512,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5586,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>2000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5660,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5734,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>3</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -5882,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -5956,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6030,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6104,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6178,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6252,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6326,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>200</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6400,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6474,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6548,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6622,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6696,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6844,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -6918,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -6992,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>4.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7066,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7140,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7214,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7288,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>61</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7362,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>99.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7510,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7658,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>6</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -7732,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -7806,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -7880,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -7954,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>29.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8028,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>36.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8250,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>6.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8324,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>4.5</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8398,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>6</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8472,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="X108">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8546,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -8768,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -8842,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <v>129</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -8916,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -8990,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9212,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9434,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>22.5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9508,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>29.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -9582,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -9656,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="X124">
-        <v>8.5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="X125">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -9804,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -9878,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>4.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10026,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="X129">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10100,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="X130">
-        <v>4.5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10174,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="X131">
-        <v>7.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10248,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="X132">
-        <v>10.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10396,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10470,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>7.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10618,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -10692,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="X138">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -10766,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -10840,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11210,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11358,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>6</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11506,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="X149">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -11580,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>5</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -11654,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>22.5</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -11728,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>29.5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -11950,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12098,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>68.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12246,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>80</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12986,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13282,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13356,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:24">
